--- a/Financials/MyFinancials.xlsx
+++ b/Financials/MyFinancials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="120" windowWidth="16155" windowHeight="12300" tabRatio="908"/>
+    <workbookView xWindow="-135" yWindow="120" windowWidth="16155" windowHeight="12120" tabRatio="908"/>
   </bookViews>
   <sheets>
     <sheet name="CASHFLOW Year 1" sheetId="1" r:id="rId1"/>
@@ -3081,304 +3081,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>1067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>1164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>1261</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>1455</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>1552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>1649</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>1746</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>1843</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>1940</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>2134</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>2231</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>2328</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>2425</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>2619</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>2716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>2813</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>3007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>3104</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>3201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>3298</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>3395</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>3492</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>3589</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>3686</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>3783</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>3880</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>3977</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>4074</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>4171</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>4268</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>4365</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>4462</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>4559</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>4656</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>4753</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>4850</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>4947</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>5044</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>5141</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>5238</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>5335</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>5432</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>5529</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>5626</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>5723</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>5820</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>5917</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>6014</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>6111</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>6208</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>6305</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>6402</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>6499</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>6596</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>6693</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>6790</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>6887</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>6984</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>7081</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>7178</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>7275</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>7372</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>7469</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>7566</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>7663</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>7760</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>7857</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>7954</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>8051</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>8148</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>8245</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>8342</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>8439</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>8536</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>8633</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>8730</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>8827</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>8924</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>9021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>9118</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>9215</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>9312</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>97</c:v>
+                  <c:v>9409</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>98</c:v>
+                  <c:v>9506</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>99</c:v>
+                  <c:v>9603</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>100</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3390,304 +3390,304 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3738,304 +3738,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>1067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>1164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>1261</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>1455</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>1552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>1649</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>1746</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>1843</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>1940</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>2134</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>2231</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>2328</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>2425</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>2619</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>2716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>2813</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>3007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>3104</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>3201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>3298</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>3395</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>3492</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>3589</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>3686</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>3783</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>3880</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>3977</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>4074</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>4171</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>4268</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>4365</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>4462</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>4559</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>4656</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>4753</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>4850</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>4947</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>5044</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>5141</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>5238</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>5335</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>5432</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>5529</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>5626</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>5723</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>5820</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>5917</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>6014</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>6111</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>6208</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>6305</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>6402</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>6499</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>6596</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>6693</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>6790</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>6887</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>6984</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>7081</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>7178</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>7275</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>7372</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>7469</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>7566</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>7663</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>7760</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>7857</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>7954</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>8051</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>8148</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>8245</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>8342</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>8439</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>8536</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>8633</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>8730</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>8827</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>8924</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>9021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>9118</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>9215</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>9312</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>97</c:v>
+                  <c:v>9409</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>98</c:v>
+                  <c:v>9506</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>99</c:v>
+                  <c:v>9603</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>100</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4393,304 +4393,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>1067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>1164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>1261</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>1455</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>1552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>1649</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>1746</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>1843</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>1940</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>2134</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>2231</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>2328</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>2425</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>2619</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>2716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>2813</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>3007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>3104</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>3201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>3298</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>3395</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>3492</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>3589</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>3686</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>3783</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>3880</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>3977</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>4074</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>4171</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>4268</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>4365</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>4462</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>4559</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>4656</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>4753</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>4850</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>4947</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>5044</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>5141</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>5238</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>5335</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>5432</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>5529</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>5626</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>5723</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>5820</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>5917</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>6014</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>6111</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>6208</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>6305</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>6402</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>6499</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>6596</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>6693</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>6790</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>6887</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>6984</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>7081</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>7178</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>7275</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>7372</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>7469</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>7566</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>7663</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>7760</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>7857</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>7954</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>8051</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>8148</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>8245</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>8342</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>8439</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>8536</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>8633</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>8730</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>8827</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>8924</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>9021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>9118</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>9215</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>9312</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>97</c:v>
+                  <c:v>9409</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>98</c:v>
+                  <c:v>9506</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>99</c:v>
+                  <c:v>9603</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>100</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4702,304 +4702,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5048,304 +5048,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>1067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>1164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>1261</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>1455</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>1552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>1649</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>1746</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>1843</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>1940</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>2134</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>2231</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>2328</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>2425</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>2619</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>2716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>2813</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>3007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>3104</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>3201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>3298</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>3395</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>3492</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>3589</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>3686</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>3783</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>3880</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>3977</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>4074</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>4171</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>4268</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>4365</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>4462</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>4559</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>4656</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>4753</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>4850</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>4947</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>5044</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>5141</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>5238</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>5335</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>5432</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>5529</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>5626</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>5723</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>5820</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>5917</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>6014</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>6111</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>6208</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>6305</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>6402</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>6499</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>6596</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>6693</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>6790</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>6887</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>6984</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>7081</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>7178</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>7275</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>7372</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>7469</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>7566</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>7663</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>7760</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>7857</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>7954</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>8051</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>8148</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>8245</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>8342</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>8439</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>8536</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>8633</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>8730</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>8827</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>8924</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>9021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>9118</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>9215</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>9312</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>97</c:v>
+                  <c:v>9409</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>98</c:v>
+                  <c:v>9506</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>99</c:v>
+                  <c:v>9603</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>100</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5357,304 +5357,304 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>12.13</c:v>
+                  <c:v>1176.6100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.26</c:v>
+                  <c:v>2353.2200000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.39</c:v>
+                  <c:v>3529.8300000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.52</c:v>
+                  <c:v>4706.4400000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.650000000000006</c:v>
+                  <c:v>5883.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.78</c:v>
+                  <c:v>7059.6600000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.910000000000011</c:v>
+                  <c:v>8236.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.04</c:v>
+                  <c:v>9412.880000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109.17</c:v>
+                  <c:v>10589.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>121.30000000000001</c:v>
+                  <c:v>11766.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133.43</c:v>
+                  <c:v>12942.710000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>145.56</c:v>
+                  <c:v>14119.320000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157.69</c:v>
+                  <c:v>15295.93</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>169.82000000000002</c:v>
+                  <c:v>16472.54</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>181.95000000000002</c:v>
+                  <c:v>17649.150000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>194.08</c:v>
+                  <c:v>18825.760000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>206.21</c:v>
+                  <c:v>20002.370000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>218.34</c:v>
+                  <c:v>21178.98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>230.47000000000003</c:v>
+                  <c:v>22355.59</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>242.60000000000002</c:v>
+                  <c:v>23532.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>254.73000000000002</c:v>
+                  <c:v>24708.81</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>266.86</c:v>
+                  <c:v>25885.420000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>278.99</c:v>
+                  <c:v>27062.030000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>291.12</c:v>
+                  <c:v>28238.640000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>303.25</c:v>
+                  <c:v>29415.250000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>315.38</c:v>
+                  <c:v>30591.86</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>327.51000000000005</c:v>
+                  <c:v>31768.47</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>339.64000000000004</c:v>
+                  <c:v>32945.08</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>351.77000000000004</c:v>
+                  <c:v>34121.69</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>363.90000000000003</c:v>
+                  <c:v>35298.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>376.03000000000003</c:v>
+                  <c:v>36474.910000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>388.16</c:v>
+                  <c:v>37651.520000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>400.29</c:v>
+                  <c:v>38828.130000000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>412.42</c:v>
+                  <c:v>40004.740000000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>424.55</c:v>
+                  <c:v>41181.350000000006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>436.68</c:v>
+                  <c:v>42357.96</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>448.81</c:v>
+                  <c:v>43534.57</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>460.94000000000005</c:v>
+                  <c:v>44711.18</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>473.07000000000005</c:v>
+                  <c:v>45887.79</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>485.20000000000005</c:v>
+                  <c:v>47064.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>497.33000000000004</c:v>
+                  <c:v>48241.01</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>509.46000000000004</c:v>
+                  <c:v>49417.62</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>521.59</c:v>
+                  <c:v>50594.23</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>533.72</c:v>
+                  <c:v>51770.840000000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>545.85</c:v>
+                  <c:v>52947.450000000004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>557.98</c:v>
+                  <c:v>54124.060000000005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>570.11</c:v>
+                  <c:v>55300.670000000006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>582.24</c:v>
+                  <c:v>56477.280000000006</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>594.37</c:v>
+                  <c:v>57653.890000000007</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>606.5</c:v>
+                  <c:v>58830.500000000007</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>618.63</c:v>
+                  <c:v>60007.11</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>630.76</c:v>
+                  <c:v>61183.72</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>642.89</c:v>
+                  <c:v>62360.33</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>655.0200000000001</c:v>
+                  <c:v>63536.94</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>667.15000000000009</c:v>
+                  <c:v>64713.55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>679.28000000000009</c:v>
+                  <c:v>65890.16</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>691.41000000000008</c:v>
+                  <c:v>67066.77</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>703.54000000000008</c:v>
+                  <c:v>68243.38</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>715.67000000000007</c:v>
+                  <c:v>69419.990000000005</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>727.80000000000007</c:v>
+                  <c:v>70596.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>739.93000000000006</c:v>
+                  <c:v>71773.210000000006</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>752.06000000000006</c:v>
+                  <c:v>72949.820000000007</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>764.19</c:v>
+                  <c:v>74126.430000000008</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>776.32</c:v>
+                  <c:v>75303.040000000008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>788.45</c:v>
+                  <c:v>76479.650000000009</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>800.58</c:v>
+                  <c:v>77656.260000000009</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>812.71</c:v>
+                  <c:v>78832.87000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>824.84</c:v>
+                  <c:v>80009.48000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>836.97</c:v>
+                  <c:v>81186.090000000011</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>849.1</c:v>
+                  <c:v>82362.700000000012</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>861.23</c:v>
+                  <c:v>83539.310000000012</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>873.36</c:v>
+                  <c:v>84715.92</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>885.49</c:v>
+                  <c:v>85892.53</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>897.62</c:v>
+                  <c:v>87069.14</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>909.75000000000011</c:v>
+                  <c:v>88245.75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>921.88000000000011</c:v>
+                  <c:v>89422.36</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>934.0100000000001</c:v>
+                  <c:v>90598.97</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>946.1400000000001</c:v>
+                  <c:v>91775.58</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>958.2700000000001</c:v>
+                  <c:v>92952.19</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>970.40000000000009</c:v>
+                  <c:v>94128.8</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>982.53000000000009</c:v>
+                  <c:v>95305.41</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>994.66000000000008</c:v>
+                  <c:v>96482.02</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1006.7900000000001</c:v>
+                  <c:v>97658.63</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1018.9200000000001</c:v>
+                  <c:v>98835.24</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1031.05</c:v>
+                  <c:v>100011.85</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1043.18</c:v>
+                  <c:v>101188.46</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1055.3100000000002</c:v>
+                  <c:v>102365.07</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1067.44</c:v>
+                  <c:v>103541.68000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1079.5700000000002</c:v>
+                  <c:v>104718.29000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1091.7</c:v>
+                  <c:v>105894.90000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1103.8300000000002</c:v>
+                  <c:v>107071.51000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1115.96</c:v>
+                  <c:v>108248.12000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1128.0900000000001</c:v>
+                  <c:v>109424.73000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1140.22</c:v>
+                  <c:v>110601.34000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1152.3500000000001</c:v>
+                  <c:v>111777.95000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1164.48</c:v>
+                  <c:v>112954.56000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1176.6100000000001</c:v>
+                  <c:v>114131.17000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1188.74</c:v>
+                  <c:v>115307.78000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1200.8700000000001</c:v>
+                  <c:v>116484.39000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1213</c:v>
+                  <c:v>117661.00000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5671,11 +5671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150036864"/>
-        <c:axId val="150039168"/>
+        <c:axId val="150153472"/>
+        <c:axId val="156448256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150036864"/>
+        <c:axId val="150153472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5749,7 +5749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150039168"/>
+        <c:crossAx val="156448256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5759,7 +5759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150039168"/>
+        <c:axId val="156448256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5843,7 +5843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150036864"/>
+        <c:crossAx val="150153472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6046,16 +6046,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>77777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-100</c:v>
+                  <c:v>-456036.27500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-100</c:v>
+                  <c:v>-456036.27500000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-100</c:v>
+                  <c:v>-456036.27500000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6116,7 +6116,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>533814</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6160,11 +6160,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148345984"/>
-        <c:axId val="148348288"/>
+        <c:axId val="156466560"/>
+        <c:axId val="176826624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148345984"/>
+        <c:axId val="156466560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6238,7 +6238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148348288"/>
+        <c:crossAx val="176826624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6248,7 +6248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148348288"/>
+        <c:axId val="176826624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6332,7 +6332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148345984"/>
+        <c:crossAx val="156466560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6579,7 +6579,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>84777.725000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6699,40 +6699,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>6844</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>13688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>27375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>34219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>41063</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>47906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>54750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>61594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>68438</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>75281</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>82125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6749,11 +6749,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148394368"/>
-        <c:axId val="148396672"/>
+        <c:axId val="176840064"/>
+        <c:axId val="157521408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148394368"/>
+        <c:axId val="176840064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6827,7 +6827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148396672"/>
+        <c:crossAx val="157521408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6837,7 +6837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148396672"/>
+        <c:axId val="157521408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6921,7 +6921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148394368"/>
+        <c:crossAx val="176840064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9902,10 +9902,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA186"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="B25" sqref="B25"/>
+      <selection pane="topRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="13.5"/>
@@ -10043,51 +10043,51 @@
       <c r="B5" s="6"/>
       <c r="C5" s="48">
         <f>B5+B67</f>
-        <v>100</v>
+        <v>-77933.725000000006</v>
       </c>
       <c r="D5" s="48">
         <f>C5+C67</f>
-        <v>100</v>
+        <v>-64245.725000000006</v>
       </c>
       <c r="E5" s="48">
         <f t="shared" ref="E5:N5" si="0">D5+D67</f>
-        <v>100</v>
+        <v>-43714.725000000006</v>
       </c>
       <c r="F5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>-16339.725000000006</v>
       </c>
       <c r="G5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>17879.274999999994</v>
       </c>
       <c r="H5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>58942.274999999994</v>
       </c>
       <c r="I5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>106848.27499999999</v>
       </c>
       <c r="J5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>161598.27499999999</v>
       </c>
       <c r="K5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>223192.27499999999</v>
       </c>
       <c r="L5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>291630.27500000002</v>
       </c>
       <c r="M5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>366911.27500000002</v>
       </c>
       <c r="N5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
@@ -10310,44 +10310,44 @@
         <v>197</v>
       </c>
       <c r="B11" s="348">
-        <v>100</v>
+        <v>6844</v>
       </c>
       <c r="C11" s="348">
-        <v>0</v>
+        <v>13688</v>
       </c>
       <c r="D11" s="348">
-        <v>0</v>
+        <v>20531</v>
       </c>
       <c r="E11" s="348">
-        <v>0</v>
+        <v>27375</v>
       </c>
       <c r="F11" s="348">
-        <v>0</v>
+        <v>34219</v>
       </c>
       <c r="G11" s="348">
-        <v>0</v>
+        <v>41063</v>
       </c>
       <c r="H11" s="348">
-        <v>0</v>
+        <v>47906</v>
       </c>
       <c r="I11" s="348">
-        <v>0</v>
+        <v>54750</v>
       </c>
       <c r="J11" s="348">
-        <v>0</v>
+        <v>61594</v>
       </c>
       <c r="K11" s="348">
-        <v>0</v>
+        <v>68438</v>
       </c>
       <c r="L11" s="348">
-        <v>0</v>
+        <v>75281</v>
       </c>
       <c r="M11" s="348">
-        <v>0</v>
+        <v>82125</v>
       </c>
       <c r="N11" s="59">
         <f>SUM(B11:M11)</f>
-        <v>100</v>
+        <v>533814</v>
       </c>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
@@ -10427,55 +10427,55 @@
       </c>
       <c r="B13" s="62">
         <f t="shared" ref="B13:M13" si="1">B10+B11-B12</f>
-        <v>100</v>
+        <v>6844</v>
       </c>
       <c r="C13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13688</v>
       </c>
       <c r="D13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20531</v>
       </c>
       <c r="E13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27375</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34219</v>
       </c>
       <c r="G13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41063</v>
       </c>
       <c r="H13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47906</v>
       </c>
       <c r="I13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54750</v>
       </c>
       <c r="J13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>61594</v>
       </c>
       <c r="K13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68438</v>
       </c>
       <c r="L13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75281</v>
       </c>
       <c r="M13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82125</v>
       </c>
       <c r="N13" s="62">
         <f>SUM(B13:M13)</f>
-        <v>100</v>
+        <v>533814</v>
       </c>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
@@ -10558,55 +10558,55 @@
       </c>
       <c r="B15" s="64">
         <f>B13+B14</f>
-        <v>100</v>
+        <v>6844</v>
       </c>
       <c r="C15" s="64">
         <f t="shared" ref="C15:M15" si="2">C13+C14</f>
-        <v>0</v>
+        <v>13688</v>
       </c>
       <c r="D15" s="64">
         <f>D13+D14</f>
-        <v>0</v>
+        <v>20531</v>
       </c>
       <c r="E15" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27375</v>
       </c>
       <c r="F15" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>34219</v>
       </c>
       <c r="G15" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>41063</v>
       </c>
       <c r="H15" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>47906</v>
       </c>
       <c r="I15" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>54750</v>
       </c>
       <c r="J15" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>61594</v>
       </c>
       <c r="K15" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68438</v>
       </c>
       <c r="L15" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75281</v>
       </c>
       <c r="M15" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>82125</v>
       </c>
       <c r="N15" s="65">
         <f>N13+N14</f>
-        <v>100</v>
+        <v>533814</v>
       </c>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
@@ -10862,55 +10862,55 @@
       </c>
       <c r="B22" s="75">
         <f>B15+B20</f>
-        <v>100</v>
+        <v>6844</v>
       </c>
       <c r="C22" s="75">
         <f t="shared" ref="C22:N22" si="4">+C15+C20</f>
-        <v>0</v>
+        <v>13688</v>
       </c>
       <c r="D22" s="75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20531</v>
       </c>
       <c r="E22" s="75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27375</v>
       </c>
       <c r="F22" s="75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>34219</v>
       </c>
       <c r="G22" s="75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>41063</v>
       </c>
       <c r="H22" s="75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>47906</v>
       </c>
       <c r="I22" s="75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>54750</v>
       </c>
       <c r="J22" s="75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>61594</v>
       </c>
       <c r="K22" s="75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>68438</v>
       </c>
       <c r="L22" s="75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>75281</v>
       </c>
       <c r="M22" s="75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>82125</v>
       </c>
       <c r="N22" s="75">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>533814</v>
       </c>
       <c r="O22" s="43"/>
       <c r="P22" s="43"/>
@@ -11029,7 +11029,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="16">
-        <v>0</v>
+        <v>49583</v>
       </c>
       <c r="C25" s="349">
         <v>0</v>
@@ -11066,7 +11066,7 @@
       </c>
       <c r="N25" s="59">
         <f>SUM(B25:M25)</f>
-        <v>0</v>
+        <v>49583</v>
       </c>
       <c r="O25" s="43"/>
       <c r="P25" s="43"/>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="B27" s="59">
         <f>(B26*0.1125)+(B25*0.075)</f>
-        <v>0</v>
+        <v>3718.7249999999999</v>
       </c>
       <c r="C27" s="355">
         <f t="shared" ref="C27:M27" si="7">0.1125*C25+0.07*C26</f>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="N27" s="59">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3718.7249999999999</v>
       </c>
       <c r="O27" s="79"/>
       <c r="P27" s="79"/>
@@ -11331,7 +11331,7 @@
         <v>199</v>
       </c>
       <c r="B30" s="16">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="C30" s="16">
         <v>0</v>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="N30" s="59">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
@@ -11389,7 +11389,7 @@
         <v>200</v>
       </c>
       <c r="B31" s="16">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="C31" s="16">
         <v>0</v>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="N31" s="59">
         <f>SUM(B31:M31)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="O31" s="43"/>
       <c r="P31" s="43"/>
@@ -11447,7 +11447,7 @@
         <v>201</v>
       </c>
       <c r="B32" s="16">
-        <v>0</v>
+        <v>10466</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="N32" s="59">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10466</v>
       </c>
       <c r="O32" s="43"/>
       <c r="P32" s="43"/>
@@ -11505,7 +11505,7 @@
         <v>202</v>
       </c>
       <c r="B33" s="16">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="C33" s="16">
         <v>0</v>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="N33" s="59">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="O33" s="43"/>
       <c r="P33" s="43"/>
@@ -11676,7 +11676,7 @@
         <v>205</v>
       </c>
       <c r="B36" s="16">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C36" s="16">
         <v>0</v>
@@ -11731,7 +11731,7 @@
         <v>206</v>
       </c>
       <c r="B37" s="16">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C37" s="16">
         <v>0</v>
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B42" s="81">
         <f t="shared" ref="B42:M42" si="8">SUM(B25:B41)</f>
-        <v>0</v>
+        <v>84777.725000000006</v>
       </c>
       <c r="C42" s="81">
         <f t="shared" si="8"/>
@@ -12058,7 +12058,7 @@
       </c>
       <c r="N42" s="82">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>84777.725000000006</v>
       </c>
       <c r="O42" s="83"/>
       <c r="P42" s="83"/>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="B62" s="75">
         <f>B42+B46+B60</f>
-        <v>0</v>
+        <v>84777.725000000006</v>
       </c>
       <c r="C62" s="75">
         <f t="shared" ref="C62:M62" si="13">C42+C46+C60</f>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="N62" s="90">
         <f>SUM(B62:M62)</f>
-        <v>0</v>
+        <v>84777.725000000006</v>
       </c>
       <c r="O62" s="43"/>
       <c r="P62" s="43"/>
@@ -12999,55 +12999,55 @@
       </c>
       <c r="B65" s="62">
         <f t="shared" ref="B65:M65" si="15">B22</f>
-        <v>100</v>
+        <v>6844</v>
       </c>
       <c r="C65" s="59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>13688</v>
       </c>
       <c r="D65" s="59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>20531</v>
       </c>
       <c r="E65" s="59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>27375</v>
       </c>
       <c r="F65" s="59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>34219</v>
       </c>
       <c r="G65" s="59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>41063</v>
       </c>
       <c r="H65" s="59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>47906</v>
       </c>
       <c r="I65" s="59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>54750</v>
       </c>
       <c r="J65" s="59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>61594</v>
       </c>
       <c r="K65" s="59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>68438</v>
       </c>
       <c r="L65" s="59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>75281</v>
       </c>
       <c r="M65" s="59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>82125</v>
       </c>
       <c r="N65" s="59">
         <f>SUM(B65:M65)</f>
-        <v>100</v>
+        <v>533814</v>
       </c>
       <c r="O65" s="43"/>
       <c r="P65" s="43"/>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="B66" s="62">
         <f t="shared" ref="B66:M66" si="16">B62</f>
-        <v>0</v>
+        <v>84777.725000000006</v>
       </c>
       <c r="C66" s="59">
         <f t="shared" si="16"/>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="N66" s="94">
         <f>SUM(B66:M66)</f>
-        <v>0</v>
+        <v>84777.725000000006</v>
       </c>
       <c r="O66" s="43"/>
       <c r="P66" s="43"/>
@@ -13139,55 +13139,55 @@
       </c>
       <c r="B67" s="95">
         <f t="shared" ref="B67:M67" si="17">B65-B66</f>
-        <v>100</v>
+        <v>-77933.725000000006</v>
       </c>
       <c r="C67" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>13688</v>
       </c>
       <c r="D67" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>20531</v>
       </c>
       <c r="E67" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>27375</v>
       </c>
       <c r="F67" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>34219</v>
       </c>
       <c r="G67" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>41063</v>
       </c>
       <c r="H67" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>47906</v>
       </c>
       <c r="I67" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>54750</v>
       </c>
       <c r="J67" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>61594</v>
       </c>
       <c r="K67" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68438</v>
       </c>
       <c r="L67" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>75281</v>
       </c>
       <c r="M67" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>82125</v>
       </c>
       <c r="N67" s="90">
         <f>SUM(B67:M67)</f>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="O67" s="43"/>
       <c r="P67" s="43"/>
@@ -24343,7 +24343,7 @@
       </c>
       <c r="C37" s="343">
         <f>('Income Proj Yr 1'!C9+'Income Proj Yr 1'!C10)/'CASHFLOW Year 1'!N15</f>
-        <v>0</v>
+        <v>9.2884412922853279E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="240" customFormat="1">
@@ -24505,55 +24505,55 @@
       </c>
       <c r="B5" s="75">
         <f>'CASHFLOW Year 1'!N5</f>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="C5" s="48">
         <f t="shared" ref="C5:N5" si="0">B5+B67</f>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="D5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="E5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="F5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="G5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="H5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="I5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="J5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="K5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="L5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="M5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="N5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
@@ -30169,55 +30169,55 @@
       </c>
       <c r="B5" s="75">
         <f>'CASHFLOW Year 2'!N5</f>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="C5" s="48">
         <f t="shared" ref="C5:N5" si="0">B5+B67</f>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="D5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="E5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="F5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="G5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="H5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="I5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="J5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="K5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="L5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="M5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="N5" s="48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>449036.27500000002</v>
       </c>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
@@ -35759,7 +35759,7 @@
       </c>
       <c r="C4" s="153">
         <f>'CASHFLOW Year 1'!N15</f>
-        <v>100</v>
+        <v>533814</v>
       </c>
       <c r="D4" s="150"/>
       <c r="E4" s="150"/>
@@ -35797,7 +35797,7 @@
       </c>
       <c r="C6" s="156">
         <f>C4-C5</f>
-        <v>100</v>
+        <v>533814</v>
       </c>
       <c r="D6" s="150"/>
       <c r="E6" s="150"/>
@@ -35846,7 +35846,7 @@
       </c>
       <c r="C9" s="153">
         <f>'CASHFLOW Year 1'!N25</f>
-        <v>0</v>
+        <v>49583</v>
       </c>
       <c r="D9" s="150"/>
       <c r="E9" s="150"/>
@@ -35884,7 +35884,7 @@
       </c>
       <c r="C11" s="154">
         <f>'CASHFLOW Year 1'!N27</f>
-        <v>0</v>
+        <v>3718.7249999999999</v>
       </c>
       <c r="D11" s="161"/>
       <c r="E11" s="150"/>
@@ -35922,7 +35922,7 @@
       </c>
       <c r="C13" s="154">
         <f>'CASHFLOW Year 1'!N30</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D13" s="148"/>
       <c r="E13" s="150"/>
@@ -35941,7 +35941,7 @@
       </c>
       <c r="C14" s="154">
         <f>'CASHFLOW Year 1'!N31</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="D14" s="148"/>
       <c r="E14" s="150"/>
@@ -35960,7 +35960,7 @@
       </c>
       <c r="C15" s="154">
         <f>'CASHFLOW Year 1'!N32</f>
-        <v>0</v>
+        <v>10466</v>
       </c>
       <c r="D15" s="148"/>
       <c r="E15" s="150"/>
@@ -35979,7 +35979,7 @@
       </c>
       <c r="C16" s="154">
         <f>'CASHFLOW Year 1'!N33</f>
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="D16" s="148"/>
       <c r="E16" s="150"/>
@@ -36188,7 +36188,7 @@
       </c>
       <c r="C27" s="156">
         <f>SUM(C9:C26)</f>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="D27" s="148"/>
       <c r="E27" s="150"/>
@@ -36221,7 +36221,7 @@
       </c>
       <c r="C29" s="163">
         <f>C6-C27+C28</f>
-        <v>100</v>
+        <v>456036.27500000002</v>
       </c>
       <c r="D29" s="150"/>
       <c r="E29" s="150"/>
@@ -42035,11 +42035,11 @@
       </c>
       <c r="AB2" s="188">
         <f>AA2*$AI$4</f>
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="AC2" s="192">
         <f>$B$4</f>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD2" s="187">
         <f>$B$5*AB2</f>
@@ -42047,18 +42047,18 @@
       </c>
       <c r="AE2" s="187">
         <f>AC2+AD2</f>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF2" s="193">
         <f t="shared" ref="AF2:AF65" si="0">$B$3*AB2</f>
-        <v>12.13</v>
+        <v>1176.6100000000001</v>
       </c>
       <c r="AH2" s="187" t="s">
         <v>171</v>
       </c>
       <c r="AI2" s="187">
         <f>INT(H4*1.5)</f>
-        <v>1</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="16.5" thickTop="1" thickBot="1">
@@ -42087,11 +42087,11 @@
       </c>
       <c r="AB3" s="188">
         <f t="shared" ref="AB3:AB66" si="1">AA3*$AI$4</f>
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="AC3" s="192">
         <f t="shared" ref="AC3:AC66" si="2">$B$4</f>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD3" s="187">
         <f t="shared" ref="AD3:AD66" si="3">$B$5*AB3</f>
@@ -42099,18 +42099,18 @@
       </c>
       <c r="AE3" s="187">
         <f t="shared" ref="AE3:AE66" si="4">AC3+AD3</f>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF3" s="193">
         <f t="shared" si="0"/>
-        <v>24.26</v>
+        <v>2353.2200000000003</v>
       </c>
       <c r="AH3" s="187" t="s">
         <v>172</v>
       </c>
       <c r="AI3" s="187">
         <f>INT(AI2/100)+1</f>
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="15.75" thickTop="1">
@@ -42119,7 +42119,7 @@
       </c>
       <c r="B4" s="199">
         <f>'Income Proj Yr 1'!C27</f>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="C4" s="190"/>
       <c r="D4" s="190"/>
@@ -42130,7 +42130,7 @@
       <c r="G4" s="201"/>
       <c r="H4" s="202">
         <f>INT(B4/(B3-B5))+1</f>
-        <v>1</v>
+        <v>6413</v>
       </c>
       <c r="I4" s="203" t="s">
         <v>167</v>
@@ -42147,11 +42147,11 @@
       </c>
       <c r="AB4" s="188">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>291</v>
       </c>
       <c r="AC4" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD4" s="187">
         <f t="shared" si="3"/>
@@ -42159,18 +42159,18 @@
       </c>
       <c r="AE4" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF4" s="193">
         <f t="shared" si="0"/>
-        <v>36.39</v>
+        <v>3529.8300000000004</v>
       </c>
       <c r="AH4" s="187" t="s">
         <v>173</v>
       </c>
       <c r="AI4" s="187">
         <f>AI3</f>
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15">
@@ -42200,11 +42200,11 @@
       </c>
       <c r="AB5" s="188">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>388</v>
       </c>
       <c r="AC5" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD5" s="187">
         <f t="shared" si="3"/>
@@ -42212,11 +42212,11 @@
       </c>
       <c r="AE5" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF5" s="193">
         <f t="shared" si="0"/>
-        <v>48.52</v>
+        <v>4706.4400000000005</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15">
@@ -42225,7 +42225,7 @@
       </c>
       <c r="B6" s="210">
         <f>'Income Proj Yr 1'!C4/B3</f>
-        <v>8.2440230832646328</v>
+        <v>44007.749381698268</v>
       </c>
       <c r="C6" s="190"/>
       <c r="D6" s="190"/>
@@ -42246,11 +42246,11 @@
       </c>
       <c r="AB6" s="188">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>485</v>
       </c>
       <c r="AC6" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD6" s="187">
         <f t="shared" si="3"/>
@@ -42258,11 +42258,11 @@
       </c>
       <c r="AE6" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF6" s="193">
         <f t="shared" si="0"/>
-        <v>60.650000000000006</v>
+        <v>5883.05</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -42287,11 +42287,11 @@
       </c>
       <c r="AB7" s="188">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>582</v>
       </c>
       <c r="AC7" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD7" s="187">
         <f t="shared" si="3"/>
@@ -42299,11 +42299,11 @@
       </c>
       <c r="AE7" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF7" s="193">
         <f t="shared" si="0"/>
-        <v>72.78</v>
+        <v>7059.6600000000008</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -42330,11 +42330,11 @@
       </c>
       <c r="AB8" s="188">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>679</v>
       </c>
       <c r="AC8" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD8" s="187">
         <f t="shared" si="3"/>
@@ -42342,11 +42342,11 @@
       </c>
       <c r="AE8" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF8" s="193">
         <f t="shared" si="0"/>
-        <v>84.910000000000011</v>
+        <v>8236.27</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -42395,11 +42395,11 @@
       </c>
       <c r="AB9" s="188">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>776</v>
       </c>
       <c r="AC9" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD9" s="187">
         <f t="shared" si="3"/>
@@ -42407,11 +42407,11 @@
       </c>
       <c r="AE9" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF9" s="193">
         <f t="shared" si="0"/>
-        <v>97.04</v>
+        <v>9412.880000000001</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -42420,51 +42420,51 @@
       </c>
       <c r="B10" s="212">
         <f>IF($H$4/12&gt;INT($H$4/12), INT($H$4/12)+1, INT($H$4/12))</f>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="C10" s="212">
         <f t="shared" ref="C10:M10" si="5">IF($H$4/12&gt;INT($H$4/12), INT($H$4/12)+1, INT($H$4/12))</f>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="D10" s="212">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="E10" s="212">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="F10" s="212">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="G10" s="212">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="H10" s="212">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="I10" s="212">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="J10" s="212">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="K10" s="212">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="L10" s="212">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="M10" s="212">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="N10" s="190"/>
       <c r="O10" s="190"/>
@@ -42474,11 +42474,11 @@
       </c>
       <c r="AB10" s="188">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>873</v>
       </c>
       <c r="AC10" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD10" s="187">
         <f t="shared" si="3"/>
@@ -42486,11 +42486,11 @@
       </c>
       <c r="AE10" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF10" s="193">
         <f t="shared" si="0"/>
-        <v>109.17</v>
+        <v>10589.49</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -42515,11 +42515,11 @@
       </c>
       <c r="AB11" s="188">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AC11" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD11" s="187">
         <f t="shared" si="3"/>
@@ -42527,11 +42527,11 @@
       </c>
       <c r="AE11" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF11" s="193">
         <f t="shared" si="0"/>
-        <v>121.30000000000001</v>
+        <v>11766.1</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -42556,11 +42556,11 @@
       </c>
       <c r="AB12" s="188">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>1067</v>
       </c>
       <c r="AC12" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD12" s="187">
         <f t="shared" si="3"/>
@@ -42568,11 +42568,11 @@
       </c>
       <c r="AE12" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF12" s="193">
         <f t="shared" si="0"/>
-        <v>133.43</v>
+        <v>12942.710000000001</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -42597,11 +42597,11 @@
       </c>
       <c r="AB13" s="188">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>1164</v>
       </c>
       <c r="AC13" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD13" s="187">
         <f t="shared" si="3"/>
@@ -42609,11 +42609,11 @@
       </c>
       <c r="AE13" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF13" s="193">
         <f t="shared" si="0"/>
-        <v>145.56</v>
+        <v>14119.320000000002</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -42638,11 +42638,11 @@
       </c>
       <c r="AB14" s="188">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>1261</v>
       </c>
       <c r="AC14" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD14" s="187">
         <f t="shared" si="3"/>
@@ -42650,11 +42650,11 @@
       </c>
       <c r="AE14" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF14" s="193">
         <f t="shared" si="0"/>
-        <v>157.69</v>
+        <v>15295.93</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -42679,11 +42679,11 @@
       </c>
       <c r="AB15" s="188">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>1358</v>
       </c>
       <c r="AC15" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD15" s="187">
         <f t="shared" si="3"/>
@@ -42691,11 +42691,11 @@
       </c>
       <c r="AE15" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF15" s="193">
         <f t="shared" si="0"/>
-        <v>169.82000000000002</v>
+        <v>16472.54</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -42720,11 +42720,11 @@
       </c>
       <c r="AB16" s="188">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>1455</v>
       </c>
       <c r="AC16" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD16" s="187">
         <f t="shared" si="3"/>
@@ -42732,11 +42732,11 @@
       </c>
       <c r="AE16" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF16" s="193">
         <f t="shared" si="0"/>
-        <v>181.95000000000002</v>
+        <v>17649.150000000001</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -42761,11 +42761,11 @@
       </c>
       <c r="AB17" s="188">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>1552</v>
       </c>
       <c r="AC17" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD17" s="187">
         <f t="shared" si="3"/>
@@ -42773,11 +42773,11 @@
       </c>
       <c r="AE17" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF17" s="193">
         <f t="shared" si="0"/>
-        <v>194.08</v>
+        <v>18825.760000000002</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -42802,11 +42802,11 @@
       </c>
       <c r="AB18" s="188">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>1649</v>
       </c>
       <c r="AC18" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD18" s="187">
         <f t="shared" si="3"/>
@@ -42814,11 +42814,11 @@
       </c>
       <c r="AE18" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF18" s="193">
         <f t="shared" si="0"/>
-        <v>206.21</v>
+        <v>20002.370000000003</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -42843,11 +42843,11 @@
       </c>
       <c r="AB19" s="188">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>1746</v>
       </c>
       <c r="AC19" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD19" s="187">
         <f t="shared" si="3"/>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="AE19" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF19" s="193">
         <f t="shared" si="0"/>
-        <v>218.34</v>
+        <v>21178.98</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -42884,11 +42884,11 @@
       </c>
       <c r="AB20" s="188">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>1843</v>
       </c>
       <c r="AC20" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD20" s="187">
         <f t="shared" si="3"/>
@@ -42896,11 +42896,11 @@
       </c>
       <c r="AE20" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF20" s="193">
         <f t="shared" si="0"/>
-        <v>230.47000000000003</v>
+        <v>22355.59</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -42925,11 +42925,11 @@
       </c>
       <c r="AB21" s="188">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>1940</v>
       </c>
       <c r="AC21" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD21" s="187">
         <f t="shared" si="3"/>
@@ -42937,11 +42937,11 @@
       </c>
       <c r="AE21" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF21" s="193">
         <f t="shared" si="0"/>
-        <v>242.60000000000002</v>
+        <v>23532.2</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -42966,11 +42966,11 @@
       </c>
       <c r="AB22" s="188">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>2037</v>
       </c>
       <c r="AC22" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD22" s="187">
         <f t="shared" si="3"/>
@@ -42978,11 +42978,11 @@
       </c>
       <c r="AE22" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF22" s="193">
         <f t="shared" si="0"/>
-        <v>254.73000000000002</v>
+        <v>24708.81</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -43007,11 +43007,11 @@
       </c>
       <c r="AB23" s="188">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>2134</v>
       </c>
       <c r="AC23" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD23" s="187">
         <f t="shared" si="3"/>
@@ -43019,11 +43019,11 @@
       </c>
       <c r="AE23" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF23" s="193">
         <f t="shared" si="0"/>
-        <v>266.86</v>
+        <v>25885.420000000002</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -43048,11 +43048,11 @@
       </c>
       <c r="AB24" s="188">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>2231</v>
       </c>
       <c r="AC24" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD24" s="187">
         <f t="shared" si="3"/>
@@ -43060,11 +43060,11 @@
       </c>
       <c r="AE24" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF24" s="193">
         <f t="shared" si="0"/>
-        <v>278.99</v>
+        <v>27062.030000000002</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -43089,11 +43089,11 @@
       </c>
       <c r="AB25" s="188">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>2328</v>
       </c>
       <c r="AC25" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD25" s="187">
         <f t="shared" si="3"/>
@@ -43101,11 +43101,11 @@
       </c>
       <c r="AE25" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF25" s="193">
         <f t="shared" si="0"/>
-        <v>291.12</v>
+        <v>28238.640000000003</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -43130,11 +43130,11 @@
       </c>
       <c r="AB26" s="188">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>2425</v>
       </c>
       <c r="AC26" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD26" s="187">
         <f t="shared" si="3"/>
@@ -43142,11 +43142,11 @@
       </c>
       <c r="AE26" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF26" s="193">
         <f t="shared" si="0"/>
-        <v>303.25</v>
+        <v>29415.250000000004</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -43171,11 +43171,11 @@
       </c>
       <c r="AB27" s="188">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>2522</v>
       </c>
       <c r="AC27" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD27" s="187">
         <f t="shared" si="3"/>
@@ -43183,11 +43183,11 @@
       </c>
       <c r="AE27" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF27" s="193">
         <f t="shared" si="0"/>
-        <v>315.38</v>
+        <v>30591.86</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -43212,11 +43212,11 @@
       </c>
       <c r="AB28" s="188">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>2619</v>
       </c>
       <c r="AC28" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD28" s="187">
         <f t="shared" si="3"/>
@@ -43224,11 +43224,11 @@
       </c>
       <c r="AE28" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF28" s="193">
         <f t="shared" si="0"/>
-        <v>327.51000000000005</v>
+        <v>31768.47</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -43253,11 +43253,11 @@
       </c>
       <c r="AB29" s="188">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>2716</v>
       </c>
       <c r="AC29" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD29" s="187">
         <f t="shared" si="3"/>
@@ -43265,11 +43265,11 @@
       </c>
       <c r="AE29" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF29" s="193">
         <f t="shared" si="0"/>
-        <v>339.64000000000004</v>
+        <v>32945.08</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -43294,11 +43294,11 @@
       </c>
       <c r="AB30" s="188">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>2813</v>
       </c>
       <c r="AC30" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD30" s="187">
         <f t="shared" si="3"/>
@@ -43306,11 +43306,11 @@
       </c>
       <c r="AE30" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF30" s="193">
         <f t="shared" si="0"/>
-        <v>351.77000000000004</v>
+        <v>34121.69</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -43335,11 +43335,11 @@
       </c>
       <c r="AB31" s="188">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2910</v>
       </c>
       <c r="AC31" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD31" s="187">
         <f t="shared" si="3"/>
@@ -43347,11 +43347,11 @@
       </c>
       <c r="AE31" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF31" s="193">
         <f t="shared" si="0"/>
-        <v>363.90000000000003</v>
+        <v>35298.300000000003</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -43376,11 +43376,11 @@
       </c>
       <c r="AB32" s="188">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>3007</v>
       </c>
       <c r="AC32" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD32" s="187">
         <f t="shared" si="3"/>
@@ -43388,11 +43388,11 @@
       </c>
       <c r="AE32" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF32" s="193">
         <f t="shared" si="0"/>
-        <v>376.03000000000003</v>
+        <v>36474.910000000003</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -43417,11 +43417,11 @@
       </c>
       <c r="AB33" s="188">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>3104</v>
       </c>
       <c r="AC33" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD33" s="187">
         <f t="shared" si="3"/>
@@ -43429,11 +43429,11 @@
       </c>
       <c r="AE33" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF33" s="193">
         <f t="shared" si="0"/>
-        <v>388.16</v>
+        <v>37651.520000000004</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -43458,11 +43458,11 @@
       </c>
       <c r="AB34" s="188">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>3201</v>
       </c>
       <c r="AC34" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD34" s="187">
         <f t="shared" si="3"/>
@@ -43470,11 +43470,11 @@
       </c>
       <c r="AE34" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF34" s="193">
         <f t="shared" si="0"/>
-        <v>400.29</v>
+        <v>38828.130000000005</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -43499,11 +43499,11 @@
       </c>
       <c r="AB35" s="188">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>3298</v>
       </c>
       <c r="AC35" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD35" s="187">
         <f t="shared" si="3"/>
@@ -43511,11 +43511,11 @@
       </c>
       <c r="AE35" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF35" s="193">
         <f t="shared" si="0"/>
-        <v>412.42</v>
+        <v>40004.740000000005</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -43540,11 +43540,11 @@
       </c>
       <c r="AB36" s="188">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>3395</v>
       </c>
       <c r="AC36" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD36" s="187">
         <f t="shared" si="3"/>
@@ -43552,11 +43552,11 @@
       </c>
       <c r="AE36" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF36" s="193">
         <f t="shared" si="0"/>
-        <v>424.55</v>
+        <v>41181.350000000006</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -43581,11 +43581,11 @@
       </c>
       <c r="AB37" s="188">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>3492</v>
       </c>
       <c r="AC37" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD37" s="187">
         <f t="shared" si="3"/>
@@ -43593,11 +43593,11 @@
       </c>
       <c r="AE37" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF37" s="193">
         <f t="shared" si="0"/>
-        <v>436.68</v>
+        <v>42357.96</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -43622,11 +43622,11 @@
       </c>
       <c r="AB38" s="188">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>3589</v>
       </c>
       <c r="AC38" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD38" s="187">
         <f t="shared" si="3"/>
@@ -43634,11 +43634,11 @@
       </c>
       <c r="AE38" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF38" s="193">
         <f t="shared" si="0"/>
-        <v>448.81</v>
+        <v>43534.57</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -43663,11 +43663,11 @@
       </c>
       <c r="AB39" s="188">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>3686</v>
       </c>
       <c r="AC39" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD39" s="187">
         <f t="shared" si="3"/>
@@ -43675,11 +43675,11 @@
       </c>
       <c r="AE39" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF39" s="193">
         <f t="shared" si="0"/>
-        <v>460.94000000000005</v>
+        <v>44711.18</v>
       </c>
     </row>
     <row r="40" spans="1:32">
@@ -43704,11 +43704,11 @@
       </c>
       <c r="AB40" s="188">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>3783</v>
       </c>
       <c r="AC40" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD40" s="187">
         <f t="shared" si="3"/>
@@ -43716,11 +43716,11 @@
       </c>
       <c r="AE40" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF40" s="193">
         <f t="shared" si="0"/>
-        <v>473.07000000000005</v>
+        <v>45887.79</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -43745,11 +43745,11 @@
       </c>
       <c r="AB41" s="188">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>3880</v>
       </c>
       <c r="AC41" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD41" s="187">
         <f t="shared" si="3"/>
@@ -43757,11 +43757,11 @@
       </c>
       <c r="AE41" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF41" s="193">
         <f t="shared" si="0"/>
-        <v>485.20000000000005</v>
+        <v>47064.4</v>
       </c>
     </row>
     <row r="42" spans="1:32">
@@ -43786,11 +43786,11 @@
       </c>
       <c r="AB42" s="188">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>3977</v>
       </c>
       <c r="AC42" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD42" s="187">
         <f t="shared" si="3"/>
@@ -43798,11 +43798,11 @@
       </c>
       <c r="AE42" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF42" s="193">
         <f t="shared" si="0"/>
-        <v>497.33000000000004</v>
+        <v>48241.01</v>
       </c>
     </row>
     <row r="43" spans="1:32">
@@ -43827,11 +43827,11 @@
       </c>
       <c r="AB43" s="188">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>4074</v>
       </c>
       <c r="AC43" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD43" s="187">
         <f t="shared" si="3"/>
@@ -43839,11 +43839,11 @@
       </c>
       <c r="AE43" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF43" s="193">
         <f t="shared" si="0"/>
-        <v>509.46000000000004</v>
+        <v>49417.62</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -43868,11 +43868,11 @@
       </c>
       <c r="AB44" s="188">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>4171</v>
       </c>
       <c r="AC44" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD44" s="187">
         <f t="shared" si="3"/>
@@ -43880,11 +43880,11 @@
       </c>
       <c r="AE44" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF44" s="193">
         <f t="shared" si="0"/>
-        <v>521.59</v>
+        <v>50594.23</v>
       </c>
     </row>
     <row r="45" spans="1:32">
@@ -43909,11 +43909,11 @@
       </c>
       <c r="AB45" s="188">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>4268</v>
       </c>
       <c r="AC45" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD45" s="187">
         <f t="shared" si="3"/>
@@ -43921,11 +43921,11 @@
       </c>
       <c r="AE45" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF45" s="193">
         <f t="shared" si="0"/>
-        <v>533.72</v>
+        <v>51770.840000000004</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -43934,11 +43934,11 @@
       </c>
       <c r="AB46" s="188">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>4365</v>
       </c>
       <c r="AC46" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD46" s="187">
         <f t="shared" si="3"/>
@@ -43946,11 +43946,11 @@
       </c>
       <c r="AE46" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF46" s="193">
         <f t="shared" si="0"/>
-        <v>545.85</v>
+        <v>52947.450000000004</v>
       </c>
     </row>
     <row r="47" spans="1:32">
@@ -43959,11 +43959,11 @@
       </c>
       <c r="AB47" s="188">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>4462</v>
       </c>
       <c r="AC47" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD47" s="187">
         <f t="shared" si="3"/>
@@ -43971,11 +43971,11 @@
       </c>
       <c r="AE47" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF47" s="193">
         <f t="shared" si="0"/>
-        <v>557.98</v>
+        <v>54124.060000000005</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -43984,11 +43984,11 @@
       </c>
       <c r="AB48" s="188">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>4559</v>
       </c>
       <c r="AC48" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD48" s="187">
         <f t="shared" si="3"/>
@@ -43996,11 +43996,11 @@
       </c>
       <c r="AE48" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF48" s="193">
         <f t="shared" si="0"/>
-        <v>570.11</v>
+        <v>55300.670000000006</v>
       </c>
     </row>
     <row r="49" spans="27:32">
@@ -44009,11 +44009,11 @@
       </c>
       <c r="AB49" s="188">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>4656</v>
       </c>
       <c r="AC49" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD49" s="187">
         <f t="shared" si="3"/>
@@ -44021,11 +44021,11 @@
       </c>
       <c r="AE49" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF49" s="193">
         <f t="shared" si="0"/>
-        <v>582.24</v>
+        <v>56477.280000000006</v>
       </c>
     </row>
     <row r="50" spans="27:32">
@@ -44034,11 +44034,11 @@
       </c>
       <c r="AB50" s="188">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>4753</v>
       </c>
       <c r="AC50" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD50" s="187">
         <f t="shared" si="3"/>
@@ -44046,11 +44046,11 @@
       </c>
       <c r="AE50" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF50" s="193">
         <f t="shared" si="0"/>
-        <v>594.37</v>
+        <v>57653.890000000007</v>
       </c>
     </row>
     <row r="51" spans="27:32">
@@ -44059,11 +44059,11 @@
       </c>
       <c r="AB51" s="188">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>4850</v>
       </c>
       <c r="AC51" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD51" s="187">
         <f t="shared" si="3"/>
@@ -44071,11 +44071,11 @@
       </c>
       <c r="AE51" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF51" s="193">
         <f t="shared" si="0"/>
-        <v>606.5</v>
+        <v>58830.500000000007</v>
       </c>
     </row>
     <row r="52" spans="27:32">
@@ -44084,11 +44084,11 @@
       </c>
       <c r="AB52" s="188">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>4947</v>
       </c>
       <c r="AC52" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD52" s="187">
         <f t="shared" si="3"/>
@@ -44096,11 +44096,11 @@
       </c>
       <c r="AE52" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF52" s="193">
         <f t="shared" si="0"/>
-        <v>618.63</v>
+        <v>60007.11</v>
       </c>
     </row>
     <row r="53" spans="27:32">
@@ -44109,11 +44109,11 @@
       </c>
       <c r="AB53" s="188">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>5044</v>
       </c>
       <c r="AC53" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD53" s="187">
         <f t="shared" si="3"/>
@@ -44121,11 +44121,11 @@
       </c>
       <c r="AE53" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF53" s="193">
         <f t="shared" si="0"/>
-        <v>630.76</v>
+        <v>61183.72</v>
       </c>
     </row>
     <row r="54" spans="27:32">
@@ -44134,11 +44134,11 @@
       </c>
       <c r="AB54" s="188">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>5141</v>
       </c>
       <c r="AC54" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD54" s="187">
         <f t="shared" si="3"/>
@@ -44146,11 +44146,11 @@
       </c>
       <c r="AE54" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF54" s="193">
         <f t="shared" si="0"/>
-        <v>642.89</v>
+        <v>62360.33</v>
       </c>
     </row>
     <row r="55" spans="27:32">
@@ -44159,11 +44159,11 @@
       </c>
       <c r="AB55" s="188">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>5238</v>
       </c>
       <c r="AC55" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD55" s="187">
         <f t="shared" si="3"/>
@@ -44171,11 +44171,11 @@
       </c>
       <c r="AE55" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF55" s="193">
         <f t="shared" si="0"/>
-        <v>655.0200000000001</v>
+        <v>63536.94</v>
       </c>
     </row>
     <row r="56" spans="27:32">
@@ -44184,11 +44184,11 @@
       </c>
       <c r="AB56" s="188">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>5335</v>
       </c>
       <c r="AC56" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD56" s="187">
         <f t="shared" si="3"/>
@@ -44196,11 +44196,11 @@
       </c>
       <c r="AE56" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF56" s="193">
         <f t="shared" si="0"/>
-        <v>667.15000000000009</v>
+        <v>64713.55</v>
       </c>
     </row>
     <row r="57" spans="27:32">
@@ -44209,11 +44209,11 @@
       </c>
       <c r="AB57" s="188">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>5432</v>
       </c>
       <c r="AC57" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD57" s="187">
         <f t="shared" si="3"/>
@@ -44221,11 +44221,11 @@
       </c>
       <c r="AE57" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF57" s="193">
         <f t="shared" si="0"/>
-        <v>679.28000000000009</v>
+        <v>65890.16</v>
       </c>
     </row>
     <row r="58" spans="27:32">
@@ -44234,11 +44234,11 @@
       </c>
       <c r="AB58" s="188">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>5529</v>
       </c>
       <c r="AC58" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD58" s="187">
         <f t="shared" si="3"/>
@@ -44246,11 +44246,11 @@
       </c>
       <c r="AE58" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF58" s="193">
         <f t="shared" si="0"/>
-        <v>691.41000000000008</v>
+        <v>67066.77</v>
       </c>
     </row>
     <row r="59" spans="27:32">
@@ -44259,11 +44259,11 @@
       </c>
       <c r="AB59" s="188">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>5626</v>
       </c>
       <c r="AC59" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD59" s="187">
         <f t="shared" si="3"/>
@@ -44271,11 +44271,11 @@
       </c>
       <c r="AE59" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF59" s="193">
         <f t="shared" si="0"/>
-        <v>703.54000000000008</v>
+        <v>68243.38</v>
       </c>
     </row>
     <row r="60" spans="27:32">
@@ -44284,11 +44284,11 @@
       </c>
       <c r="AB60" s="188">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>5723</v>
       </c>
       <c r="AC60" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD60" s="187">
         <f t="shared" si="3"/>
@@ -44296,11 +44296,11 @@
       </c>
       <c r="AE60" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF60" s="193">
         <f t="shared" si="0"/>
-        <v>715.67000000000007</v>
+        <v>69419.990000000005</v>
       </c>
     </row>
     <row r="61" spans="27:32">
@@ -44309,11 +44309,11 @@
       </c>
       <c r="AB61" s="188">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>5820</v>
       </c>
       <c r="AC61" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD61" s="187">
         <f t="shared" si="3"/>
@@ -44321,11 +44321,11 @@
       </c>
       <c r="AE61" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF61" s="193">
         <f t="shared" si="0"/>
-        <v>727.80000000000007</v>
+        <v>70596.600000000006</v>
       </c>
     </row>
     <row r="62" spans="27:32">
@@ -44334,11 +44334,11 @@
       </c>
       <c r="AB62" s="188">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>5917</v>
       </c>
       <c r="AC62" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD62" s="187">
         <f t="shared" si="3"/>
@@ -44346,11 +44346,11 @@
       </c>
       <c r="AE62" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF62" s="193">
         <f t="shared" si="0"/>
-        <v>739.93000000000006</v>
+        <v>71773.210000000006</v>
       </c>
     </row>
     <row r="63" spans="27:32">
@@ -44359,11 +44359,11 @@
       </c>
       <c r="AB63" s="188">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>6014</v>
       </c>
       <c r="AC63" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD63" s="187">
         <f t="shared" si="3"/>
@@ -44371,11 +44371,11 @@
       </c>
       <c r="AE63" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF63" s="193">
         <f t="shared" si="0"/>
-        <v>752.06000000000006</v>
+        <v>72949.820000000007</v>
       </c>
     </row>
     <row r="64" spans="27:32">
@@ -44384,11 +44384,11 @@
       </c>
       <c r="AB64" s="188">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>6111</v>
       </c>
       <c r="AC64" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD64" s="187">
         <f t="shared" si="3"/>
@@ -44396,11 +44396,11 @@
       </c>
       <c r="AE64" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF64" s="193">
         <f t="shared" si="0"/>
-        <v>764.19</v>
+        <v>74126.430000000008</v>
       </c>
     </row>
     <row r="65" spans="27:32">
@@ -44409,11 +44409,11 @@
       </c>
       <c r="AB65" s="188">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>6208</v>
       </c>
       <c r="AC65" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD65" s="187">
         <f t="shared" si="3"/>
@@ -44421,11 +44421,11 @@
       </c>
       <c r="AE65" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF65" s="193">
         <f t="shared" si="0"/>
-        <v>776.32</v>
+        <v>75303.040000000008</v>
       </c>
     </row>
     <row r="66" spans="27:32">
@@ -44434,11 +44434,11 @@
       </c>
       <c r="AB66" s="188">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>6305</v>
       </c>
       <c r="AC66" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD66" s="187">
         <f t="shared" si="3"/>
@@ -44446,11 +44446,11 @@
       </c>
       <c r="AE66" s="187">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF66" s="193">
         <f t="shared" ref="AF66:AF101" si="6">$B$3*AB66</f>
-        <v>788.45</v>
+        <v>76479.650000000009</v>
       </c>
     </row>
     <row r="67" spans="27:32">
@@ -44459,11 +44459,11 @@
       </c>
       <c r="AB67" s="188">
         <f t="shared" ref="AB67:AB101" si="7">AA67*$AI$4</f>
-        <v>66</v>
+        <v>6402</v>
       </c>
       <c r="AC67" s="192">
         <f t="shared" ref="AC67:AC101" si="8">$B$4</f>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD67" s="187">
         <f t="shared" ref="AD67:AD101" si="9">$B$5*AB67</f>
@@ -44471,11 +44471,11 @@
       </c>
       <c r="AE67" s="187">
         <f t="shared" ref="AE67:AE101" si="10">AC67+AD67</f>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF67" s="193">
         <f t="shared" si="6"/>
-        <v>800.58</v>
+        <v>77656.260000000009</v>
       </c>
     </row>
     <row r="68" spans="27:32">
@@ -44484,11 +44484,11 @@
       </c>
       <c r="AB68" s="188">
         <f t="shared" si="7"/>
-        <v>67</v>
+        <v>6499</v>
       </c>
       <c r="AC68" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD68" s="187">
         <f t="shared" si="9"/>
@@ -44496,11 +44496,11 @@
       </c>
       <c r="AE68" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF68" s="193">
         <f t="shared" si="6"/>
-        <v>812.71</v>
+        <v>78832.87000000001</v>
       </c>
     </row>
     <row r="69" spans="27:32">
@@ -44509,11 +44509,11 @@
       </c>
       <c r="AB69" s="188">
         <f t="shared" si="7"/>
-        <v>68</v>
+        <v>6596</v>
       </c>
       <c r="AC69" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD69" s="187">
         <f t="shared" si="9"/>
@@ -44521,11 +44521,11 @@
       </c>
       <c r="AE69" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF69" s="193">
         <f t="shared" si="6"/>
-        <v>824.84</v>
+        <v>80009.48000000001</v>
       </c>
     </row>
     <row r="70" spans="27:32">
@@ -44534,11 +44534,11 @@
       </c>
       <c r="AB70" s="188">
         <f t="shared" si="7"/>
-        <v>69</v>
+        <v>6693</v>
       </c>
       <c r="AC70" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD70" s="187">
         <f t="shared" si="9"/>
@@ -44546,11 +44546,11 @@
       </c>
       <c r="AE70" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF70" s="193">
         <f t="shared" si="6"/>
-        <v>836.97</v>
+        <v>81186.090000000011</v>
       </c>
     </row>
     <row r="71" spans="27:32">
@@ -44559,11 +44559,11 @@
       </c>
       <c r="AB71" s="188">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>6790</v>
       </c>
       <c r="AC71" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD71" s="187">
         <f t="shared" si="9"/>
@@ -44571,11 +44571,11 @@
       </c>
       <c r="AE71" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF71" s="193">
         <f t="shared" si="6"/>
-        <v>849.1</v>
+        <v>82362.700000000012</v>
       </c>
     </row>
     <row r="72" spans="27:32">
@@ -44584,11 +44584,11 @@
       </c>
       <c r="AB72" s="188">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>6887</v>
       </c>
       <c r="AC72" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD72" s="187">
         <f t="shared" si="9"/>
@@ -44596,11 +44596,11 @@
       </c>
       <c r="AE72" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF72" s="193">
         <f t="shared" si="6"/>
-        <v>861.23</v>
+        <v>83539.310000000012</v>
       </c>
     </row>
     <row r="73" spans="27:32">
@@ -44609,11 +44609,11 @@
       </c>
       <c r="AB73" s="188">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>6984</v>
       </c>
       <c r="AC73" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD73" s="187">
         <f t="shared" si="9"/>
@@ -44621,11 +44621,11 @@
       </c>
       <c r="AE73" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF73" s="193">
         <f t="shared" si="6"/>
-        <v>873.36</v>
+        <v>84715.92</v>
       </c>
     </row>
     <row r="74" spans="27:32">
@@ -44634,11 +44634,11 @@
       </c>
       <c r="AB74" s="188">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>7081</v>
       </c>
       <c r="AC74" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD74" s="187">
         <f t="shared" si="9"/>
@@ -44646,11 +44646,11 @@
       </c>
       <c r="AE74" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF74" s="193">
         <f t="shared" si="6"/>
-        <v>885.49</v>
+        <v>85892.53</v>
       </c>
     </row>
     <row r="75" spans="27:32">
@@ -44659,11 +44659,11 @@
       </c>
       <c r="AB75" s="188">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>7178</v>
       </c>
       <c r="AC75" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD75" s="187">
         <f t="shared" si="9"/>
@@ -44671,11 +44671,11 @@
       </c>
       <c r="AE75" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF75" s="193">
         <f t="shared" si="6"/>
-        <v>897.62</v>
+        <v>87069.14</v>
       </c>
     </row>
     <row r="76" spans="27:32">
@@ -44684,11 +44684,11 @@
       </c>
       <c r="AB76" s="188">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>7275</v>
       </c>
       <c r="AC76" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD76" s="187">
         <f t="shared" si="9"/>
@@ -44696,11 +44696,11 @@
       </c>
       <c r="AE76" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF76" s="193">
         <f t="shared" si="6"/>
-        <v>909.75000000000011</v>
+        <v>88245.75</v>
       </c>
     </row>
     <row r="77" spans="27:32">
@@ -44709,11 +44709,11 @@
       </c>
       <c r="AB77" s="188">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>7372</v>
       </c>
       <c r="AC77" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD77" s="187">
         <f t="shared" si="9"/>
@@ -44721,11 +44721,11 @@
       </c>
       <c r="AE77" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF77" s="193">
         <f t="shared" si="6"/>
-        <v>921.88000000000011</v>
+        <v>89422.36</v>
       </c>
     </row>
     <row r="78" spans="27:32">
@@ -44734,11 +44734,11 @@
       </c>
       <c r="AB78" s="188">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>7469</v>
       </c>
       <c r="AC78" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD78" s="187">
         <f t="shared" si="9"/>
@@ -44746,11 +44746,11 @@
       </c>
       <c r="AE78" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF78" s="193">
         <f t="shared" si="6"/>
-        <v>934.0100000000001</v>
+        <v>90598.97</v>
       </c>
     </row>
     <row r="79" spans="27:32">
@@ -44759,11 +44759,11 @@
       </c>
       <c r="AB79" s="188">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>7566</v>
       </c>
       <c r="AC79" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD79" s="187">
         <f t="shared" si="9"/>
@@ -44771,11 +44771,11 @@
       </c>
       <c r="AE79" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF79" s="193">
         <f t="shared" si="6"/>
-        <v>946.1400000000001</v>
+        <v>91775.58</v>
       </c>
     </row>
     <row r="80" spans="27:32">
@@ -44784,11 +44784,11 @@
       </c>
       <c r="AB80" s="188">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>7663</v>
       </c>
       <c r="AC80" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD80" s="187">
         <f t="shared" si="9"/>
@@ -44796,11 +44796,11 @@
       </c>
       <c r="AE80" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF80" s="193">
         <f t="shared" si="6"/>
-        <v>958.2700000000001</v>
+        <v>92952.19</v>
       </c>
     </row>
     <row r="81" spans="27:32">
@@ -44809,11 +44809,11 @@
       </c>
       <c r="AB81" s="188">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>7760</v>
       </c>
       <c r="AC81" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD81" s="187">
         <f t="shared" si="9"/>
@@ -44821,11 +44821,11 @@
       </c>
       <c r="AE81" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF81" s="193">
         <f t="shared" si="6"/>
-        <v>970.40000000000009</v>
+        <v>94128.8</v>
       </c>
     </row>
     <row r="82" spans="27:32">
@@ -44834,11 +44834,11 @@
       </c>
       <c r="AB82" s="188">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>7857</v>
       </c>
       <c r="AC82" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD82" s="187">
         <f t="shared" si="9"/>
@@ -44846,11 +44846,11 @@
       </c>
       <c r="AE82" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF82" s="193">
         <f t="shared" si="6"/>
-        <v>982.53000000000009</v>
+        <v>95305.41</v>
       </c>
     </row>
     <row r="83" spans="27:32">
@@ -44859,11 +44859,11 @@
       </c>
       <c r="AB83" s="188">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>7954</v>
       </c>
       <c r="AC83" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD83" s="187">
         <f t="shared" si="9"/>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="AE83" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF83" s="193">
         <f t="shared" si="6"/>
-        <v>994.66000000000008</v>
+        <v>96482.02</v>
       </c>
     </row>
     <row r="84" spans="27:32">
@@ -44884,11 +44884,11 @@
       </c>
       <c r="AB84" s="188">
         <f t="shared" si="7"/>
-        <v>83</v>
+        <v>8051</v>
       </c>
       <c r="AC84" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD84" s="187">
         <f t="shared" si="9"/>
@@ -44896,11 +44896,11 @@
       </c>
       <c r="AE84" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF84" s="193">
         <f t="shared" si="6"/>
-        <v>1006.7900000000001</v>
+        <v>97658.63</v>
       </c>
     </row>
     <row r="85" spans="27:32">
@@ -44909,11 +44909,11 @@
       </c>
       <c r="AB85" s="188">
         <f t="shared" si="7"/>
-        <v>84</v>
+        <v>8148</v>
       </c>
       <c r="AC85" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD85" s="187">
         <f t="shared" si="9"/>
@@ -44921,11 +44921,11 @@
       </c>
       <c r="AE85" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF85" s="193">
         <f t="shared" si="6"/>
-        <v>1018.9200000000001</v>
+        <v>98835.24</v>
       </c>
     </row>
     <row r="86" spans="27:32">
@@ -44934,11 +44934,11 @@
       </c>
       <c r="AB86" s="188">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>8245</v>
       </c>
       <c r="AC86" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD86" s="187">
         <f t="shared" si="9"/>
@@ -44946,11 +44946,11 @@
       </c>
       <c r="AE86" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF86" s="193">
         <f t="shared" si="6"/>
-        <v>1031.05</v>
+        <v>100011.85</v>
       </c>
     </row>
     <row r="87" spans="27:32">
@@ -44959,11 +44959,11 @@
       </c>
       <c r="AB87" s="188">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>8342</v>
       </c>
       <c r="AC87" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD87" s="187">
         <f t="shared" si="9"/>
@@ -44971,11 +44971,11 @@
       </c>
       <c r="AE87" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF87" s="193">
         <f t="shared" si="6"/>
-        <v>1043.18</v>
+        <v>101188.46</v>
       </c>
     </row>
     <row r="88" spans="27:32">
@@ -44984,11 +44984,11 @@
       </c>
       <c r="AB88" s="188">
         <f t="shared" si="7"/>
-        <v>87</v>
+        <v>8439</v>
       </c>
       <c r="AC88" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD88" s="187">
         <f t="shared" si="9"/>
@@ -44996,11 +44996,11 @@
       </c>
       <c r="AE88" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF88" s="193">
         <f t="shared" si="6"/>
-        <v>1055.3100000000002</v>
+        <v>102365.07</v>
       </c>
     </row>
     <row r="89" spans="27:32">
@@ -45009,11 +45009,11 @@
       </c>
       <c r="AB89" s="188">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>8536</v>
       </c>
       <c r="AC89" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD89" s="187">
         <f t="shared" si="9"/>
@@ -45021,11 +45021,11 @@
       </c>
       <c r="AE89" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF89" s="193">
         <f t="shared" si="6"/>
-        <v>1067.44</v>
+        <v>103541.68000000001</v>
       </c>
     </row>
     <row r="90" spans="27:32">
@@ -45034,11 +45034,11 @@
       </c>
       <c r="AB90" s="188">
         <f t="shared" si="7"/>
-        <v>89</v>
+        <v>8633</v>
       </c>
       <c r="AC90" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD90" s="187">
         <f t="shared" si="9"/>
@@ -45046,11 +45046,11 @@
       </c>
       <c r="AE90" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF90" s="193">
         <f t="shared" si="6"/>
-        <v>1079.5700000000002</v>
+        <v>104718.29000000001</v>
       </c>
     </row>
     <row r="91" spans="27:32">
@@ -45059,11 +45059,11 @@
       </c>
       <c r="AB91" s="188">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>8730</v>
       </c>
       <c r="AC91" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD91" s="187">
         <f t="shared" si="9"/>
@@ -45071,11 +45071,11 @@
       </c>
       <c r="AE91" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF91" s="193">
         <f t="shared" si="6"/>
-        <v>1091.7</v>
+        <v>105894.90000000001</v>
       </c>
     </row>
     <row r="92" spans="27:32">
@@ -45084,11 +45084,11 @@
       </c>
       <c r="AB92" s="188">
         <f t="shared" si="7"/>
-        <v>91</v>
+        <v>8827</v>
       </c>
       <c r="AC92" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD92" s="187">
         <f t="shared" si="9"/>
@@ -45096,11 +45096,11 @@
       </c>
       <c r="AE92" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF92" s="193">
         <f t="shared" si="6"/>
-        <v>1103.8300000000002</v>
+        <v>107071.51000000001</v>
       </c>
     </row>
     <row r="93" spans="27:32">
@@ -45109,11 +45109,11 @@
       </c>
       <c r="AB93" s="188">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>8924</v>
       </c>
       <c r="AC93" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD93" s="187">
         <f t="shared" si="9"/>
@@ -45121,11 +45121,11 @@
       </c>
       <c r="AE93" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF93" s="193">
         <f t="shared" si="6"/>
-        <v>1115.96</v>
+        <v>108248.12000000001</v>
       </c>
     </row>
     <row r="94" spans="27:32">
@@ -45134,11 +45134,11 @@
       </c>
       <c r="AB94" s="188">
         <f t="shared" si="7"/>
-        <v>93</v>
+        <v>9021</v>
       </c>
       <c r="AC94" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD94" s="187">
         <f t="shared" si="9"/>
@@ -45146,11 +45146,11 @@
       </c>
       <c r="AE94" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF94" s="193">
         <f t="shared" si="6"/>
-        <v>1128.0900000000001</v>
+        <v>109424.73000000001</v>
       </c>
     </row>
     <row r="95" spans="27:32">
@@ -45159,11 +45159,11 @@
       </c>
       <c r="AB95" s="188">
         <f t="shared" si="7"/>
-        <v>94</v>
+        <v>9118</v>
       </c>
       <c r="AC95" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD95" s="187">
         <f t="shared" si="9"/>
@@ -45171,11 +45171,11 @@
       </c>
       <c r="AE95" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF95" s="193">
         <f t="shared" si="6"/>
-        <v>1140.22</v>
+        <v>110601.34000000001</v>
       </c>
     </row>
     <row r="96" spans="27:32">
@@ -45184,11 +45184,11 @@
       </c>
       <c r="AB96" s="188">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>9215</v>
       </c>
       <c r="AC96" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD96" s="187">
         <f t="shared" si="9"/>
@@ -45196,11 +45196,11 @@
       </c>
       <c r="AE96" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF96" s="193">
         <f t="shared" si="6"/>
-        <v>1152.3500000000001</v>
+        <v>111777.95000000001</v>
       </c>
     </row>
     <row r="97" spans="27:32">
@@ -45209,11 +45209,11 @@
       </c>
       <c r="AB97" s="188">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>9312</v>
       </c>
       <c r="AC97" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD97" s="187">
         <f t="shared" si="9"/>
@@ -45221,11 +45221,11 @@
       </c>
       <c r="AE97" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF97" s="193">
         <f t="shared" si="6"/>
-        <v>1164.48</v>
+        <v>112954.56000000001</v>
       </c>
     </row>
     <row r="98" spans="27:32">
@@ -45234,11 +45234,11 @@
       </c>
       <c r="AB98" s="188">
         <f t="shared" si="7"/>
-        <v>97</v>
+        <v>9409</v>
       </c>
       <c r="AC98" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD98" s="187">
         <f t="shared" si="9"/>
@@ -45246,11 +45246,11 @@
       </c>
       <c r="AE98" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF98" s="193">
         <f t="shared" si="6"/>
-        <v>1176.6100000000001</v>
+        <v>114131.17000000001</v>
       </c>
     </row>
     <row r="99" spans="27:32">
@@ -45259,11 +45259,11 @@
       </c>
       <c r="AB99" s="188">
         <f t="shared" si="7"/>
-        <v>98</v>
+        <v>9506</v>
       </c>
       <c r="AC99" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD99" s="187">
         <f t="shared" si="9"/>
@@ -45271,11 +45271,11 @@
       </c>
       <c r="AE99" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF99" s="193">
         <f t="shared" si="6"/>
-        <v>1188.74</v>
+        <v>115307.78000000001</v>
       </c>
     </row>
     <row r="100" spans="27:32">
@@ -45284,11 +45284,11 @@
       </c>
       <c r="AB100" s="188">
         <f t="shared" si="7"/>
-        <v>99</v>
+        <v>9603</v>
       </c>
       <c r="AC100" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD100" s="187">
         <f t="shared" si="9"/>
@@ -45296,11 +45296,11 @@
       </c>
       <c r="AE100" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF100" s="193">
         <f t="shared" si="6"/>
-        <v>1200.8700000000001</v>
+        <v>116484.39000000001</v>
       </c>
     </row>
     <row r="101" spans="27:32">
@@ -45309,11 +45309,11 @@
       </c>
       <c r="AB101" s="188">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>9700</v>
       </c>
       <c r="AC101" s="192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AD101" s="187">
         <f t="shared" si="9"/>
@@ -45321,11 +45321,11 @@
       </c>
       <c r="AE101" s="187">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="AF101" s="193">
         <f t="shared" si="6"/>
-        <v>1213</v>
+        <v>117661.00000000001</v>
       </c>
     </row>
     <row r="102" spans="27:32">
@@ -49171,7 +49171,7 @@
       </c>
       <c r="B6" s="229">
         <f>'CASHFLOW Year 1'!B42</f>
-        <v>0</v>
+        <v>84777.725000000006</v>
       </c>
       <c r="C6" s="230">
         <f>'CASHFLOW Year 1'!C42</f>
@@ -49238,47 +49238,47 @@
       <c r="B7" s="229"/>
       <c r="C7" s="230">
         <f t="shared" ref="C7:M7" si="0">-B10</f>
-        <v>-100</v>
+        <v>77933.725000000006</v>
       </c>
       <c r="D7" s="230">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-13688</v>
       </c>
       <c r="E7" s="230">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-20531</v>
       </c>
       <c r="F7" s="230">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-27375</v>
       </c>
       <c r="G7" s="230">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-34219</v>
       </c>
       <c r="H7" s="230">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-41063</v>
       </c>
       <c r="I7" s="230">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-47906</v>
       </c>
       <c r="J7" s="230">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-54750</v>
       </c>
       <c r="K7" s="230">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-61594</v>
       </c>
       <c r="L7" s="230">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-68438</v>
       </c>
       <c r="M7" s="231">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-75281</v>
       </c>
       <c r="N7" s="187"/>
       <c r="O7" s="187"/>
@@ -49300,7 +49300,7 @@
       </c>
       <c r="B8" s="226">
         <f>SUM(B4:B6)</f>
-        <v>0</v>
+        <v>84777.725000000006</v>
       </c>
       <c r="C8" s="227">
         <f t="shared" ref="C8:M8" si="1">SUM(C4:C6)</f>
@@ -49366,51 +49366,51 @@
       </c>
       <c r="B9" s="226">
         <f>'CASHFLOW Year 1'!B15</f>
-        <v>100</v>
+        <v>6844</v>
       </c>
       <c r="C9" s="227">
         <f>'CASHFLOW Year 1'!C15</f>
-        <v>0</v>
+        <v>13688</v>
       </c>
       <c r="D9" s="227">
         <f>'CASHFLOW Year 1'!D15</f>
-        <v>0</v>
+        <v>20531</v>
       </c>
       <c r="E9" s="227">
         <f>'CASHFLOW Year 1'!E15</f>
-        <v>0</v>
+        <v>27375</v>
       </c>
       <c r="F9" s="227">
         <f>'CASHFLOW Year 1'!F15</f>
-        <v>0</v>
+        <v>34219</v>
       </c>
       <c r="G9" s="227">
         <f>'CASHFLOW Year 1'!G15</f>
-        <v>0</v>
+        <v>41063</v>
       </c>
       <c r="H9" s="227">
         <f>'CASHFLOW Year 1'!H15</f>
-        <v>0</v>
+        <v>47906</v>
       </c>
       <c r="I9" s="227">
         <f>'CASHFLOW Year 1'!I15</f>
-        <v>0</v>
+        <v>54750</v>
       </c>
       <c r="J9" s="227">
         <f>'CASHFLOW Year 1'!J15</f>
-        <v>0</v>
+        <v>61594</v>
       </c>
       <c r="K9" s="227">
         <f>'CASHFLOW Year 1'!K15</f>
-        <v>0</v>
+        <v>68438</v>
       </c>
       <c r="L9" s="227">
         <f>'CASHFLOW Year 1'!L15</f>
-        <v>0</v>
+        <v>75281</v>
       </c>
       <c r="M9" s="228">
         <f>'CASHFLOW Year 1'!M15</f>
-        <v>0</v>
+        <v>82125</v>
       </c>
       <c r="N9" s="187"/>
       <c r="O9" s="187"/>
@@ -49432,51 +49432,51 @@
       </c>
       <c r="B10" s="232">
         <f t="shared" ref="B10:M10" si="2">B9-B8</f>
-        <v>100</v>
+        <v>-77933.725000000006</v>
       </c>
       <c r="C10" s="233">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13688</v>
       </c>
       <c r="D10" s="233">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20531</v>
       </c>
       <c r="E10" s="233">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27375</v>
       </c>
       <c r="F10" s="233">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>34219</v>
       </c>
       <c r="G10" s="233">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>41063</v>
       </c>
       <c r="H10" s="233">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>47906</v>
       </c>
       <c r="I10" s="233">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>54750</v>
       </c>
       <c r="J10" s="233">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>61594</v>
       </c>
       <c r="K10" s="233">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68438</v>
       </c>
       <c r="L10" s="233">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75281</v>
       </c>
       <c r="M10" s="234">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>82125</v>
       </c>
       <c r="N10" s="187"/>
       <c r="O10" s="187"/>
@@ -49666,7 +49666,7 @@
       </c>
       <c r="B15" s="226">
         <f>'Income Proj Yr 1'!C27+'Income Proj Yr 1'!C5</f>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="C15" s="227">
         <f>'Income Proj Yr 2'!C27+'Income Proj Yr 2'!C5</f>
@@ -49727,15 +49727,15 @@
       <c r="B16" s="226"/>
       <c r="C16" s="227">
         <f>-B19</f>
-        <v>-100</v>
+        <v>-456036.27500000002</v>
       </c>
       <c r="D16" s="227">
         <f>-C19</f>
-        <v>-100</v>
+        <v>-456036.27500000002</v>
       </c>
       <c r="E16" s="227">
         <f>-D19</f>
-        <v>-100</v>
+        <v>-456036.27500000002</v>
       </c>
       <c r="F16" s="227">
         <v>0</v>
@@ -49777,19 +49777,19 @@
       </c>
       <c r="B17" s="226">
         <f t="shared" ref="B17:K17" si="3">SUM(B13:B16)</f>
-        <v>0</v>
+        <v>77777.725000000006</v>
       </c>
       <c r="C17" s="227">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>-456036.27500000002</v>
       </c>
       <c r="D17" s="227">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>-456036.27500000002</v>
       </c>
       <c r="E17" s="227">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>-456036.27500000002</v>
       </c>
       <c r="F17" s="227">
         <f t="shared" si="3"/>
@@ -49837,7 +49837,7 @@
       </c>
       <c r="B18" s="226">
         <f>'Income Proj Yr 1'!C4</f>
-        <v>100</v>
+        <v>533814</v>
       </c>
       <c r="C18" s="227">
         <f>'Income Proj Yr 2'!C4</f>
@@ -49897,19 +49897,19 @@
       </c>
       <c r="B19" s="232">
         <f t="shared" ref="B19:K19" si="4">B18-B17</f>
-        <v>100</v>
+        <v>456036.27500000002</v>
       </c>
       <c r="C19" s="233">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>456036.27500000002</v>
       </c>
       <c r="D19" s="233">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>456036.27500000002</v>
       </c>
       <c r="E19" s="233">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>456036.27500000002</v>
       </c>
       <c r="F19" s="233">
         <f t="shared" si="4"/>
